--- a/biology/Botanique/Eru_(plat)/Eru_(plat).xlsx
+++ b/biology/Botanique/Eru_(plat)/Eru_(plat).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le eru est un plat camerounais, à base de plantes potagères, d'huile de palme et de viandes. Il s'agit d'une spécialité de l'ethnie Banyang, établie dans le département de la Manyu de la région du Sud-Ouest du Cameroun.
 Ce plat s'accompagne avec du foufou ou du gari.
@@ -512,10 +524,12 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La recette de base contient des écrevisses, du poisson fumé et de la peau de bœuf. L'ensemble des ingrédients est souvent difficile à trouver hors du Cameroun.
-Il s'agit d'un potage à base de légumes composée de la plante gnetum africanum finement râpée, avant d'être mijoté avec du talinum fruticosum ou des épinards, de l'huile de palme, des écrevisses, du poisson fumé et de la peau de vache ou de bœuf, localement appelé « kanda »[1].
+Il s'agit d'un potage à base de légumes composée de la plante gnetum africanum finement râpée, avant d'être mijoté avec du talinum fruticosum ou des épinards, de l'huile de palme, des écrevisses, du poisson fumé et de la peau de vache ou de bœuf, localement appelé « kanda ».
 </t>
         </is>
       </c>
